--- a/AI_Eval_2023_2024.xlsx
+++ b/AI_Eval_2023_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenyildiz/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75916DC0-95C4-AF4A-8709-98A63E6D89B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE443152-FCA1-B748-B836-DB85B0198D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,21 +97,30 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nicolas Hendrikx:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Les cellules mises en forme de cette façon ont leurs valeurs qui dérivent d'autres cellules</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Les cellules mises en forme de cette façon ont leurs valeurs qui dérivent d'autres cellules</t>
         </r>
       </text>
     </comment>
@@ -679,7 +688,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="124">
   <si>
     <t>Acquis évalués :</t>
   </si>
@@ -1369,6 +1378,16 @@
   </si>
   <si>
     <t>Je ne sais pas ce que c'est qu'un cas dégradé</t>
+  </si>
+  <si>
+    <t>LackOfCohesion -&gt; Type: MeasurementAggregator begins at 16 ends at 111
+This class members does not seem to form a cohesive set.
+Type: TemperatureProfile begins at 15 ends at 103
+This class members does not seem to form a cohesive set.
+Type: IniConfigurationReader begins at 22 ends at 239
+This class members does not seem to form a cohesive set.
+Type: ConsoleThermometerView begins at 9 ends at 53
+This class members does not seem to form a cohesive set.</t>
   </si>
 </sst>
 </file>
@@ -2235,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2630,7 +2649,7 @@
       <c r="T16" s="43"/>
       <c r="U16" s="43"/>
     </row>
-    <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="288" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>50</v>
       </c>
@@ -2648,6 +2667,9 @@
       </c>
       <c r="L17" s="18" t="s">
         <v>113</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="Q17" s="43"/>
       <c r="R17" s="43"/>

--- a/AI_Eval_2023_2024.xlsx
+++ b/AI_Eval_2023_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenyildiz/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE443152-FCA1-B748-B836-DB85B0198D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{564242A7-89ED-5349-95D2-72BBF8A2A421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eval 1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>nicolas hendrikx:</t>
         </r>
@@ -60,7 +60,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Idée : valorisons les degrés maitrise si au final les étudiants ont validé tous leurs acquis</t>
@@ -154,7 +154,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -163,13 +163,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mettez une croix si vous respectez le critères
-Mettez la colonne Observé à 1 si vous respectez tous les critères</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Mettez une croix si vous respectez le critères
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mettez la colonne Observé à 1 si vous respectez tous les critères</t>
         </r>
       </text>
     </comment>
@@ -181,7 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>nicolas hendrikx:</t>
         </r>
@@ -190,7 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Adapter les critères pour tenir les DP (Observables, etc.)</t>
@@ -216,7 +234,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>nicolas hendrikx:</t>
         </r>
@@ -225,7 +243,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Idée : valorisons les degrés maitrise si au final les étudiants ont validé tous leurs acquis</t>
@@ -264,7 +282,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nicolas Hendrikx:</t>
         </r>
@@ -273,7 +291,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Les cellules mises en forme de cette façon ont leurs valeurs qui dérivent d'autres cellules</t>
@@ -337,7 +355,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>nicolas hendrikx:</t>
         </r>
@@ -346,7 +364,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Adapter les critères pour tenir les DP (Observables, etc.)</t>
@@ -372,7 +390,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>nicolas hendrikx:</t>
         </r>
@@ -381,7 +399,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Idée : valorisons les degrés maitrise si au final les étudiants ont validé tous leurs acquis</t>
@@ -420,7 +438,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nicolas Hendrikx:</t>
         </r>
@@ -429,7 +447,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Les cellules mises en forme de cette façon ont leurs valeurs qui dérivent d'autres cellules</t>
@@ -493,7 +511,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>nicolas hendrikx:</t>
         </r>
@@ -502,7 +520,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Adapter les critères pour tenir les DP (Observables, etc.)</t>
@@ -528,7 +546,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>nicolas hendrikx:</t>
         </r>
@@ -537,7 +555,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Idée : valorisons les degrés maitrise si au final les étudiants ont validé tous leurs acquis</t>
@@ -576,7 +594,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nicolas Hendrikx:</t>
         </r>
@@ -585,7 +603,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Les cellules mises en forme de cette façon ont leurs valeurs qui dérivent d'autres cellules</t>
@@ -667,7 +685,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>nicolas hendrikx:</t>
         </r>
@@ -676,7 +694,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Adapter les critères pour tenir les DP (Observables, etc.)</t>
@@ -688,7 +706,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="127">
   <si>
     <t>Acquis évalués :</t>
   </si>
@@ -1389,12 +1407,21 @@
 Type: ConsoleThermometerView begins at 9 ends at 53
 This class members does not seem to form a cohesive set.</t>
   </si>
+  <si>
+    <t>Yildiz Ruben</t>
+  </si>
+  <si>
+    <t>e200382</t>
+  </si>
+  <si>
+    <t>gradle run --config-file Salon.ini</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1459,19 +1486,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <i/>
@@ -1672,8 +1686,8 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
@@ -1703,9 +1717,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="9" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
@@ -1713,32 +1727,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="9"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="11"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="11"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="10"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1752,27 +1782,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2254,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2269,18 +2283,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M2" s="16" t="s">
@@ -2303,16 +2317,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="M3" s="40" t="s">
+      <c r="A3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="K3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="36" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="17">
@@ -2337,7 +2354,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M4" s="40"/>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="36"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -2345,18 +2365,18 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2373,28 +2393,28 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
@@ -2413,11 +2433,11 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
@@ -2446,11 +2466,11 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
@@ -2469,11 +2489,11 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
@@ -2492,11 +2512,11 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
@@ -2515,11 +2535,11 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
@@ -2551,11 +2571,11 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -2577,18 +2597,18 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2604,36 +2624,36 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16">
         <v>1</v>
       </c>
@@ -2643,25 +2663,25 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="288" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
       <c r="K17">
         <v>0</v>
       </c>
@@ -2671,75 +2691,75 @@
       <c r="M17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="1"/>
       <c r="M20" s="3" t="s">
         <v>11</v>
@@ -2753,36 +2773,36 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22">
         <v>1</v>
       </c>
@@ -2792,25 +2812,25 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23">
         <v>1</v>
       </c>
@@ -2820,25 +2840,25 @@
       <c r="M23" t="s">
         <v>117</v>
       </c>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
       <c r="K24">
         <v>1</v>
       </c>
@@ -2848,75 +2868,75 @@
       <c r="M24" t="s">
         <v>116</v>
       </c>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="21">
         <v>1</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="21">
         <v>1</v>
       </c>
       <c r="L26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="1"/>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -2930,47 +2950,47 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
@@ -2991,50 +3011,50 @@
       <c r="L30" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="21">
         <v>1</v>
       </c>
       <c r="L31" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
       <c r="K32" s="21">
         <v>1</v>
       </c>
@@ -3043,18 +3063,18 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="1"/>
       <c r="M33" s="3" t="s">
         <v>13</v>
@@ -3068,66 +3088,66 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
       <c r="K36">
         <v>1</v>
       </c>
@@ -3138,26 +3158,26 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
       <c r="K37">
         <v>1</v>
       </c>
@@ -3166,26 +3186,26 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
       <c r="K38">
         <v>1</v>
       </c>
@@ -3194,26 +3214,26 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="1"/>
       <c r="M39" s="3" t="s">
         <v>27</v>
@@ -3227,36 +3247,36 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
       <c r="K41">
         <v>1</v>
       </c>
@@ -3266,25 +3286,25 @@
       <c r="M41" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-    </row>
-    <row r="42" spans="1:22" ht="128" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+    </row>
+    <row r="42" spans="1:22" ht="96" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
       <c r="K42">
         <v>1</v>
       </c>
@@ -3294,25 +3314,25 @@
       <c r="M42" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="96" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
       <c r="K43">
         <v>1</v>
       </c>
@@ -3322,50 +3342,50 @@
       <c r="M43" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="21">
         <v>1</v>
       </c>
       <c r="L44" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="2"/>
       <c r="M45" s="3" t="s">
         <v>15</v>
@@ -3379,82 +3399,82 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="192" x14ac:dyDescent="0.2">
       <c r="A49" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
       <c r="K49">
         <v>1</v>
       </c>
@@ -3464,36 +3484,36 @@
       <c r="M49" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="52" x14ac:dyDescent="0.2">
       <c r="A50" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34" t="s">
@@ -3514,36 +3534,36 @@
       <c r="L51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="26" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
       <c r="K52" s="21">
         <v>1</v>
       </c>
       <c r="L52" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="34" t="s">
@@ -3564,11 +3584,11 @@
       <c r="L53" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="34" t="s">
@@ -3589,11 +3609,11 @@
       <c r="L54" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
@@ -3617,56 +3637,56 @@
       <c r="M55" t="s">
         <v>122</v>
       </c>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="39" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
       <c r="K56" s="21">
         <v>1</v>
       </c>
       <c r="L56" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
       <c r="K58" t="str">
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Insuffisant</v>
       </c>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
@@ -3674,79 +3694,160 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="Q42:U42"/>
     <mergeCell ref="H60:M68"/>
     <mergeCell ref="Q5:U5"/>
     <mergeCell ref="H58:J58"/>
@@ -3763,87 +3864,6 @@
     <mergeCell ref="Q44:U44"/>
     <mergeCell ref="Q47:U47"/>
     <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Très Bien">
@@ -3869,8 +3889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB4C706-6B23-44B9-8F14-75E15C0828F9}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="122" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:V68"/>
+    <sheetView zoomScale="122" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3884,18 +3904,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M2" s="16" t="s">
@@ -3918,16 +3938,16 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="M3" s="40" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="M3" s="36" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="17">
@@ -3952,7 +3972,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M4" s="40"/>
+      <c r="M4" s="36"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -3960,18 +3980,18 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
@@ -3988,28 +4008,28 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
@@ -4028,11 +4048,11 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
@@ -4061,11 +4081,11 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
@@ -4084,11 +4104,11 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
@@ -4107,11 +4127,11 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
@@ -4130,11 +4150,11 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
@@ -4166,11 +4186,11 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -4192,18 +4212,18 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
@@ -4219,36 +4239,36 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16">
         <v>1</v>
       </c>
@@ -4258,100 +4278,100 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="1"/>
       <c r="M20" s="3" t="s">
         <v>11</v>
@@ -4365,36 +4385,36 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22">
         <v>1</v>
       </c>
@@ -4404,125 +4424,125 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="21">
         <v>1</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="21">
         <v>1</v>
       </c>
       <c r="L26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="1"/>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -4536,47 +4556,47 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
@@ -4597,50 +4617,50 @@
       <c r="L30" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="21">
         <v>1</v>
       </c>
       <c r="L31" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
       <c r="K32" s="21">
         <v>1</v>
       </c>
@@ -4649,18 +4669,18 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="1"/>
       <c r="M33" s="3" t="s">
         <v>13</v>
@@ -4674,66 +4694,66 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
       <c r="K36">
         <v>1</v>
       </c>
@@ -4744,26 +4764,26 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
       <c r="K37">
         <v>1</v>
       </c>
@@ -4772,26 +4792,26 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
       <c r="K38">
         <v>1</v>
       </c>
@@ -4800,26 +4820,26 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="1"/>
       <c r="M39" s="3" t="s">
         <v>27</v>
@@ -4833,136 +4853,136 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="21">
         <v>1</v>
       </c>
       <c r="L44" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="2"/>
       <c r="M45" s="3" t="s">
         <v>15</v>
@@ -4976,118 +4996,118 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34" t="s">
@@ -5108,36 +5128,36 @@
       <c r="L51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
       <c r="K52" s="21">
         <v>1</v>
       </c>
       <c r="L52" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="34" t="s">
@@ -5158,11 +5178,11 @@
       <c r="L53" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="34" t="s">
@@ -5183,11 +5203,11 @@
       <c r="L54" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
@@ -5208,56 +5228,56 @@
       <c r="L55" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
       <c r="K56" s="21">
         <v>1</v>
       </c>
       <c r="L56" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
       <c r="K58" t="str">
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Très Bien</v>
       </c>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
@@ -5265,163 +5285,79 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="Q12:U12"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="Q9:U9"/>
     <mergeCell ref="A1:J1"/>
@@ -5435,6 +5371,90 @@
     <mergeCell ref="Q7:U7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:U58"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Très Bien">
@@ -5475,18 +5495,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M2" s="16" t="s">
@@ -5509,16 +5529,16 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="M3" s="40" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="M3" s="36" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="17">
@@ -5543,7 +5563,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M4" s="40"/>
+      <c r="M4" s="36"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -5551,18 +5571,18 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
@@ -5579,28 +5599,28 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
@@ -5619,11 +5639,11 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
@@ -5652,11 +5672,11 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
@@ -5675,11 +5695,11 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
@@ -5698,11 +5718,11 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
@@ -5721,11 +5741,11 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
@@ -5757,11 +5777,11 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -5783,18 +5803,18 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
@@ -5810,36 +5830,36 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16">
         <v>1</v>
       </c>
@@ -5849,100 +5869,100 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="1"/>
       <c r="M20" s="3" t="s">
         <v>11</v>
@@ -5956,36 +5976,36 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22">
         <v>1</v>
       </c>
@@ -5995,125 +6015,125 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="1"/>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -6127,47 +6147,47 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
@@ -6188,11 +6208,11 @@
       <c r="L30" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
@@ -6213,11 +6233,11 @@
       <c r="L31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
@@ -6240,18 +6260,18 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="1"/>
       <c r="M33" s="3" t="s">
         <v>13</v>
@@ -6265,66 +6285,66 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
       <c r="K36">
         <v>1</v>
       </c>
@@ -6335,26 +6355,26 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
       <c r="K37">
         <v>1</v>
       </c>
@@ -6363,26 +6383,26 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
       <c r="K38">
         <v>1</v>
       </c>
@@ -6391,26 +6411,26 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="1"/>
       <c r="M39" s="3" t="s">
         <v>27</v>
@@ -6424,136 +6444,136 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="21">
         <v>1</v>
       </c>
       <c r="L44" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="2"/>
       <c r="M45" s="3" t="s">
         <v>15</v>
@@ -6567,118 +6587,118 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34" t="s">
@@ -6699,11 +6719,11 @@
       <c r="L51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
@@ -6724,11 +6744,11 @@
       <c r="L52" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="34" t="s">
@@ -6749,11 +6769,11 @@
       <c r="L53" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="34" t="s">
@@ -6774,11 +6794,11 @@
       <c r="L54" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
@@ -6799,11 +6819,11 @@
       <c r="L55" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="34" t="s">
@@ -6824,31 +6844,31 @@
       <c r="L56" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
       <c r="K58" t="str">
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Très Bien</v>
       </c>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
@@ -6856,163 +6876,79 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="Q12:U12"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="Q9:U9"/>
     <mergeCell ref="A1:J1"/>
@@ -7026,6 +6962,90 @@
     <mergeCell ref="Q7:U7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:U58"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Très Bien">
@@ -7066,18 +7086,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M2" s="16" t="s">
@@ -7100,16 +7120,16 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
+      <c r="A3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="M3" s="40" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="M3" s="36" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="17">
@@ -7134,7 +7154,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M4" s="40"/>
+      <c r="M4" s="36"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -7142,18 +7162,18 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
@@ -7170,28 +7190,28 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="45" t="s">
+      <c r="Q5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
@@ -7210,11 +7230,11 @@
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
@@ -7243,11 +7263,11 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
@@ -7266,11 +7286,11 @@
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
@@ -7289,11 +7309,11 @@
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
@@ -7312,11 +7332,11 @@
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
@@ -7348,11 +7368,11 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -7374,18 +7394,18 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
       <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
@@ -7401,36 +7421,36 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="K16">
         <v>1</v>
       </c>
@@ -7440,100 +7460,100 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="1"/>
       <c r="M20" s="3" t="s">
         <v>11</v>
@@ -7547,36 +7567,36 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
       <c r="K22">
         <v>1</v>
       </c>
@@ -7586,125 +7606,125 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="1"/>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -7718,47 +7738,47 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34" t="s">
@@ -7779,11 +7799,11 @@
       <c r="L30" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34" t="s">
@@ -7804,11 +7824,11 @@
       <c r="L31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="47" t="s">
@@ -7831,18 +7851,18 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
       <c r="K33" s="1"/>
       <c r="M33" s="3" t="s">
         <v>13</v>
@@ -7856,66 +7876,66 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="V35" s="30"/>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
       <c r="K36">
         <v>1</v>
       </c>
@@ -7926,26 +7946,26 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
       <c r="K37">
         <v>1</v>
       </c>
@@ -7954,26 +7974,26 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
       <c r="K38">
         <v>1</v>
       </c>
@@ -7982,26 +8002,26 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
       <c r="K39" s="1"/>
       <c r="M39" s="3" t="s">
         <v>27</v>
@@ -8015,136 +8035,136 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
     </row>
     <row r="42" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
     </row>
     <row r="43" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
       <c r="K45" s="2"/>
       <c r="M45" s="3" t="s">
         <v>15</v>
@@ -8158,118 +8178,118 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="34" t="s">
@@ -8290,11 +8310,11 @@
       <c r="L51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="34" t="s">
@@ -8315,11 +8335,11 @@
       <c r="L52" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="34" t="s">
@@ -8340,11 +8360,11 @@
       <c r="L53" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="34" t="s">
@@ -8365,11 +8385,11 @@
       <c r="L54" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34" t="s">
@@ -8390,11 +8410,11 @@
       <c r="L55" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="34" t="s">
@@ -8415,31 +8435,31 @@
       <c r="L56" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
       <c r="K58" t="str">
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Très Bien</v>
       </c>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
@@ -8447,163 +8467,79 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="44"/>
-      <c r="L60" s="44"/>
-      <c r="M60" s="44"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="44"/>
-      <c r="M61" s="44"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="44"/>
-      <c r="L63" s="44"/>
-      <c r="M63" s="44"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="44"/>
-      <c r="M66" s="44"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="44"/>
-      <c r="L67" s="44"/>
-      <c r="M67" s="44"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="Q12:U12"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="Q9:U9"/>
     <mergeCell ref="A1:J1"/>
@@ -8617,6 +8553,90 @@
     <mergeCell ref="Q7:U7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:U58"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Très Bien">
@@ -8824,6 +8844,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6a1436b-eae5-494e-96ae-73db278ec5c1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010039BB71AD78050141888622C146F84AC2" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="5696382ab744daa14c075f8cd7151e74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6a1436b-eae5-494e-96ae-73db278ec5c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="161e10da029cd4def2d50789bd223657" ns2:_="">
     <xsd:import namespace="a6a1436b-eae5-494e-96ae-73db278ec5c1"/>
@@ -9001,26 +9040,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E45F0E7-6283-4CB8-840B-491EC0BF39FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a6a1436b-eae5-494e-96ae-73db278ec5c1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6a1436b-eae5-494e-96ae-73db278ec5c1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DA6E881-F83E-4D2E-AAF5-FBADE8E544D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0140C49F-02E7-4D99-BF23-FB9EE7110FE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9036,28 +9080,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DA6E881-F83E-4D2E-AAF5-FBADE8E544D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E45F0E7-6283-4CB8-840B-491EC0BF39FD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a6a1436b-eae5-494e-96ae-73db278ec5c1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/AI_Eval_2023_2024.xlsx
+++ b/AI_Eval_2023_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubenyildiz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9B3BEA-D587-DE4B-871F-BF4073BE2721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC02D08B-2D41-1642-9C37-26F8C7420221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22280" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="160">
   <si>
     <t>Acquis évalués :</t>
   </si>
@@ -1640,6 +1640,12 @@
   <si>
     <t>mes fichiers config se trouvent dans app/src/main/ressources/..
 ma bd local à la racine du projet /dbTest.</t>
+  </si>
+  <si>
+    <t>gradle run --args="--config-file Salon.ini"</t>
+  </si>
+  <si>
+    <t>E200382</t>
   </si>
 </sst>
 </file>
@@ -1961,24 +1967,43 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="10"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="12"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1992,30 +2017,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2497,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2512,18 +2518,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M2" s="16" t="s">
@@ -2546,19 +2552,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="40" t="s">
+      <c r="A3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="K3" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="38" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="17">
@@ -2586,7 +2592,7 @@
       <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="M4" s="41"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -2594,18 +2600,18 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2622,65 +2628,65 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="15">
         <f>IF(N8&lt;=O8,1,0)</f>
         <v>1</v>
@@ -2695,98 +2701,98 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="44" t="s">
+      <c r="Q10" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="15">
         <f>IF(N12&lt;=O12,1,0)</f>
         <v>1</v>
@@ -2804,13 +2810,13 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="45" t="s">
+      <c r="Q12" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -2832,18 +2838,18 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
@@ -2859,36 +2865,36 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
       <c r="K16">
         <v>1</v>
       </c>
@@ -2898,25 +2904,25 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:21" ht="288" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="K17">
         <v>0</v>
       </c>
@@ -2926,77 +2932,77 @@
       <c r="M17" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="Q17" s="45" t="s">
+      <c r="Q17" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="1"/>
       <c r="M20" s="3" t="s">
         <v>11</v>
@@ -3010,36 +3016,36 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
       <c r="K22">
         <v>1</v>
       </c>
@@ -3049,25 +3055,25 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
       <c r="K23">
         <v>1</v>
       </c>
@@ -3077,25 +3083,25 @@
       <c r="M23" t="s">
         <v>117</v>
       </c>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
       <c r="K24">
         <v>1</v>
       </c>
@@ -3105,75 +3111,75 @@
       <c r="M24" t="s">
         <v>116</v>
       </c>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="21">
         <v>1</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="21">
         <v>1</v>
       </c>
       <c r="L26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="1"/>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -3187,111 +3193,111 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="21">
         <v>1</v>
       </c>
       <c r="L31" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
       <c r="K32" s="21">
         <v>1</v>
       </c>
@@ -3300,18 +3306,18 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="1"/>
       <c r="M33" s="3" t="s">
         <v>13</v>
@@ -3325,63 +3331,63 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="Q35" s="46" t="s">
+      <c r="Q35" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
       <c r="K36">
         <v>1</v>
       </c>
@@ -3392,28 +3398,28 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="45" t="s">
+      <c r="Q36" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
       <c r="K37">
         <v>0</v>
       </c>
@@ -3422,28 +3428,28 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="44" t="s">
+      <c r="Q37" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
       <c r="K38">
         <v>1</v>
       </c>
@@ -3452,26 +3458,26 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
       <c r="K39" s="1"/>
       <c r="M39" s="3" t="s">
         <v>27</v>
@@ -3485,36 +3491,36 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
       <c r="K41">
         <v>1</v>
       </c>
@@ -3524,27 +3530,27 @@
       <c r="M41" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="Q41" s="45" t="s">
+      <c r="Q41" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
     </row>
     <row r="42" spans="1:22" ht="96" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
       <c r="K42">
         <v>1</v>
       </c>
@@ -3554,25 +3560,25 @@
       <c r="M42" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
     </row>
     <row r="43" spans="1:22" ht="96" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
       <c r="K43">
         <v>1</v>
       </c>
@@ -3582,50 +3588,50 @@
       <c r="M43" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
     </row>
     <row r="44" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="21">
         <v>1</v>
       </c>
       <c r="L44" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="2"/>
       <c r="M45" s="3" t="s">
         <v>15</v>
@@ -3639,82 +3645,82 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
     </row>
     <row r="49" spans="1:21" ht="192" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
       <c r="K49">
         <v>1</v>
       </c>
@@ -3724,150 +3730,150 @@
       <c r="M49" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
     </row>
     <row r="50" spans="1:21" ht="52" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
       <c r="K50">
         <v>0</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
     </row>
     <row r="52" spans="1:21" ht="26" x14ac:dyDescent="0.2">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
       <c r="K52" s="21">
         <v>1</v>
       </c>
       <c r="L52" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
       <c r="K55">
         <v>0</v>
       </c>
@@ -3877,56 +3883,56 @@
       <c r="M55" t="s">
         <v>122</v>
       </c>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
     </row>
     <row r="56" spans="1:21" ht="39" x14ac:dyDescent="0.2">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
       <c r="K56" s="21">
         <v>1</v>
       </c>
       <c r="L56" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
       <c r="K58" t="str">
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Insuffisant</v>
       </c>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
@@ -3934,79 +3940,159 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="96">
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="Q42:U42"/>
     <mergeCell ref="H60:M68"/>
     <mergeCell ref="Q5:U5"/>
     <mergeCell ref="H58:J58"/>
@@ -4023,86 +4109,6 @@
     <mergeCell ref="Q44:U44"/>
     <mergeCell ref="Q47:U47"/>
     <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="Q12:U12"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="Très Bien">
@@ -4143,18 +4149,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M2" s="16" t="s">
@@ -4177,22 +4183,22 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="40" t="s">
+      <c r="A3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="G3" s="28" t="s">
         <v>135</v>
       </c>
       <c r="K3" t="s">
         <v>136</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="38" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="17">
@@ -4217,7 +4223,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M4" s="41"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -4225,18 +4231,18 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
@@ -4253,65 +4259,65 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="15">
         <f>IF(N8&lt;=O8,1,0)</f>
         <v>1</v>
@@ -4326,94 +4332,94 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="15">
         <f>IF(N12&lt;=O12,1,0)</f>
         <v>1</v>
@@ -4431,11 +4437,11 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -4457,18 +4463,18 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
@@ -4484,36 +4490,36 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
       <c r="K16">
         <v>1</v>
       </c>
@@ -4521,94 +4527,94 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" s="18"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="18"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="18"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="1"/>
       <c r="M20" s="3" t="s">
         <v>11</v>
@@ -4622,36 +4628,36 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
       <c r="K22">
         <v>1</v>
       </c>
@@ -4659,123 +4665,123 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" s="18"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="21">
         <v>1</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="21">
         <v>1</v>
       </c>
       <c r="L26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="1"/>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -4789,107 +4795,107 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="18"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="21">
         <v>1</v>
       </c>
       <c r="L31" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
       <c r="K32" s="21">
         <v>1</v>
       </c>
@@ -4898,18 +4904,18 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="1"/>
       <c r="M33" s="3" t="s">
         <v>13</v>
@@ -4923,66 +4929,66 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
       <c r="K36">
         <v>0</v>
       </c>
@@ -4991,26 +4997,26 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
       <c r="K37">
         <v>1</v>
       </c>
@@ -5019,26 +5025,26 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
       <c r="K38">
         <v>1</v>
       </c>
@@ -5047,26 +5053,26 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
       <c r="K39" s="1"/>
       <c r="M39" s="3" t="s">
         <v>27</v>
@@ -5080,136 +5086,136 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
     </row>
     <row r="42" spans="1:22" ht="78" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
     </row>
     <row r="43" spans="1:22" ht="91" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="21">
         <v>1</v>
       </c>
       <c r="L44" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="2"/>
       <c r="M45" s="3" t="s">
         <v>15</v>
@@ -5223,288 +5229,288 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
       <c r="K52" s="21">
         <v>1</v>
       </c>
       <c r="L52" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
       <c r="K56" s="21">
         <v>1</v>
       </c>
       <c r="L56" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
       <c r="K58" t="str">
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Insuffisant</v>
       </c>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
@@ -5512,163 +5518,79 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="Q12:U12"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="Q9:U9"/>
     <mergeCell ref="A1:J1"/>
@@ -5682,6 +5604,90 @@
     <mergeCell ref="Q7:U7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:U58"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Très Bien">
@@ -5707,8 +5713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50015CA-8C58-46EA-AFA5-94E3A0EE5904}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5722,18 +5728,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M2" s="16" t="s">
@@ -5756,16 +5762,19 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="M3" s="41" t="s">
+      <c r="A3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="J3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="38" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="17">
@@ -5790,7 +5799,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M4" s="41"/>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="38"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -5798,18 +5810,18 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
@@ -5826,65 +5838,65 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="15">
         <f>IF(N8&lt;=O8,1,0)</f>
         <v>1</v>
@@ -5899,94 +5911,94 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="15">
         <f>IF(N12&lt;=O12,1,0)</f>
         <v>1</v>
@@ -6004,11 +6016,11 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -6030,18 +6042,18 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
@@ -6057,36 +6069,36 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
       <c r="K16">
         <v>1</v>
       </c>
@@ -6096,100 +6108,100 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="1"/>
       <c r="M20" s="3" t="s">
         <v>11</v>
@@ -6203,36 +6215,36 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
       <c r="K22">
         <v>1</v>
       </c>
@@ -6240,125 +6252,125 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
     </row>
     <row r="25" spans="1:21" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="1"/>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -6372,93 +6384,93 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="18"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="18"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
     </row>
     <row r="32" spans="1:21" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
@@ -6481,18 +6493,18 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="1"/>
       <c r="M33" s="3" t="s">
         <v>13</v>
@@ -6506,66 +6518,66 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
     </row>
     <row r="36" spans="1:22" ht="142" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
       <c r="K36">
         <v>1</v>
       </c>
@@ -6576,26 +6588,26 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
       <c r="K37">
         <v>1</v>
       </c>
@@ -6604,26 +6616,26 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
       <c r="K38">
         <v>1</v>
       </c>
@@ -6632,26 +6644,26 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
       <c r="K39" s="1"/>
       <c r="M39" s="3" t="s">
         <v>27</v>
@@ -6665,136 +6677,136 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
     </row>
     <row r="42" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
     </row>
     <row r="43" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="21">
         <v>1</v>
       </c>
       <c r="L44" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="2"/>
       <c r="M45" s="3" t="s">
         <v>15</v>
@@ -6808,272 +6820,272 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="18"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="18"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="18"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="18"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="18"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="18"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" s="18"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" s="18"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
       <c r="K58" t="str">
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Très Bien</v>
       </c>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
@@ -7081,163 +7093,79 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="Q12:U12"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="Q9:U9"/>
     <mergeCell ref="A1:J1"/>
@@ -7251,6 +7179,90 @@
     <mergeCell ref="Q7:U7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:U58"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Très Bien">
@@ -7291,18 +7303,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M2" s="16" t="s">
@@ -7325,16 +7337,16 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="40" t="s">
+      <c r="A3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="M3" s="41" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="M3" s="38" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="17">
@@ -7359,7 +7371,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M4" s="41"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
@@ -7367,18 +7379,18 @@
       <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="5" t="s">
         <v>4</v>
       </c>
@@ -7395,65 +7407,65 @@
       <c r="O5" s="7">
         <v>6</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="Q5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" s="19"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
     </row>
     <row r="8" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
       <c r="K8" s="15">
         <f>IF(N8&lt;=O8,1,0)</f>
         <v>1</v>
@@ -7468,94 +7480,94 @@
       <c r="O8" s="11">
         <v>3</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="19"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
     </row>
     <row r="10" spans="1:21" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" s="19"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
     </row>
     <row r="11" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" s="19"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
     </row>
     <row r="12" spans="1:21" ht="55.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="15">
         <f>IF(N12&lt;=O12,1,0)</f>
         <v>1</v>
@@ -7573,11 +7585,11 @@
         <v>3</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
     </row>
     <row r="13" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -7599,18 +7611,18 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
       <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
@@ -7626,36 +7638,36 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:21" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
       <c r="K16">
         <v>1</v>
       </c>
@@ -7665,100 +7677,100 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
     </row>
     <row r="17" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
     </row>
     <row r="18" spans="1:21" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
     </row>
     <row r="19" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="1"/>
       <c r="M20" s="3" t="s">
         <v>11</v>
@@ -7772,36 +7784,36 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
       <c r="K22">
         <v>1</v>
       </c>
@@ -7811,125 +7823,125 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
     </row>
     <row r="23" spans="1:21" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
     </row>
     <row r="24" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
     </row>
     <row r="25" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
     </row>
     <row r="26" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
       <c r="K27" s="1"/>
       <c r="M27" s="3" t="s">
         <v>12</v>
@@ -7943,97 +7955,97 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
     <row r="29" spans="1:21" ht="87.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
     </row>
     <row r="30" spans="1:21" ht="85.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
     </row>
     <row r="31" spans="1:21" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
     </row>
     <row r="32" spans="1:21" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="49" t="s">
@@ -8056,18 +8068,18 @@
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
       <c r="K33" s="1"/>
       <c r="M33" s="3" t="s">
         <v>13</v>
@@ -8081,66 +8093,66 @@
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:22" ht="49.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
     </row>
     <row r="36" spans="1:22" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
       <c r="K36">
         <v>1</v>
       </c>
@@ -8151,26 +8163,26 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="44"/>
-      <c r="T36" s="44"/>
-      <c r="U36" s="44"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
       <c r="V36" s="9"/>
     </row>
     <row r="37" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
       <c r="K37">
         <v>1</v>
       </c>
@@ -8179,26 +8191,26 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
       <c r="V37" s="9"/>
     </row>
     <row r="38" spans="1:22" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
       <c r="K38">
         <v>1</v>
       </c>
@@ -8207,26 +8219,26 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
       <c r="V38" s="9"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
       <c r="K39" s="1"/>
       <c r="M39" s="3" t="s">
         <v>27</v>
@@ -8240,136 +8252,136 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:22" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
     </row>
     <row r="42" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
     </row>
     <row r="43" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
       <c r="K45" s="2"/>
       <c r="M45" s="3" t="s">
         <v>15</v>
@@ -8383,288 +8395,288 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="19"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="19"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
     </row>
     <row r="49" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
     </row>
     <row r="50" spans="1:21" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
     </row>
     <row r="51" spans="1:21" ht="43.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
     </row>
     <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
-      <c r="S52" s="44"/>
-      <c r="T52" s="44"/>
-      <c r="U52" s="44"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
     </row>
     <row r="53" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
     </row>
     <row r="54" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
     </row>
     <row r="55" spans="1:21" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
-      <c r="S55" s="44"/>
-      <c r="T55" s="44"/>
-      <c r="U55" s="44"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
     </row>
     <row r="56" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
       <c r="K58" t="str">
         <f>IF($N$5&lt;$O$5,"Non-Recevable",IF(SUM($N$3:$R$3)&lt;3,"Très insuffisant",IF(SUM($N$3:$R$3)&lt;5,"Insuffisant",IF(SUM($K$47:$K$56)&lt;5,"Bien","Très Bien"))))</f>
         <v>Très Bien</v>
       </c>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="46"/>
-      <c r="R58" s="46"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="46"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H59" t="s">
@@ -8672,163 +8684,79 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
     </row>
     <row r="65" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
     </row>
     <row r="66" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
     </row>
     <row r="67" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
     </row>
     <row r="68" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H60:M68"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="Q54:U54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="Q56:U56"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="Q50:U50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="Q51:U51"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="Q52:U52"/>
-    <mergeCell ref="A47:J47"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="Q48:U48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="Q49:U49"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="Q42:U42"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="Q36:U36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="Q38:U38"/>
-    <mergeCell ref="R35:V35"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="M35:Q35"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="Q22:U22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="Q24:U24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="Q16:U16"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="Q18:U18"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="Q19:U19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="Q10:U10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="Q12:U12"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="Q9:U9"/>
     <mergeCell ref="A1:J1"/>
@@ -8842,6 +8770,90 @@
     <mergeCell ref="Q7:U7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="Q16:U16"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="Q17:U17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="Q18:U18"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="Q19:U19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="Q22:U22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="R35:V35"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="M35:Q35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="Q36:U36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="Q37:U37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="Q38:U38"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="Q41:U41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="Q42:U42"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A47:J47"/>
+    <mergeCell ref="Q47:U47"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="Q48:U48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="Q49:U49"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="Q50:U50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="Q51:U51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="Q52:U52"/>
+    <mergeCell ref="H60:M68"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="Q53:U53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="Q54:U54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="Q56:U56"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q58:U58"/>
   </mergeCells>
   <conditionalFormatting sqref="K58">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Très Bien">
@@ -9049,6 +9061,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010039BB71AD78050141888622C146F84AC2" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="5696382ab744daa14c075f8cd7151e74">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6a1436b-eae5-494e-96ae-73db278ec5c1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="161e10da029cd4def2d50789bd223657" ns2:_="">
     <xsd:import namespace="a6a1436b-eae5-494e-96ae-73db278ec5c1"/>
@@ -9226,15 +9247,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9246,6 +9258,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DA6E881-F83E-4D2E-AAF5-FBADE8E544D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0140C49F-02E7-4D99-BF23-FB9EE7110FE4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9259,14 +9279,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DA6E881-F83E-4D2E-AAF5-FBADE8E544D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
